--- a/数据整理/stocks/A股/科创板/688082-盛美上海.xlsx
+++ b/数据整理/stocks/A股/科创板/688082-盛美上海.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,13 +1281,711 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>19</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>8.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688082-盛美上海.xlsx
+++ b/数据整理/stocks/A股/科创板/688082-盛美上海.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.91</v>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1979,13 +2022,727 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7306</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4773</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>8.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688082-盛美上海.xlsx
+++ b/数据整理/stocks/A股/科创板/688082-盛美上海.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001411</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>61.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.0224</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001404</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商移动互联网产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8355</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.91</v>
       </c>
     </row>
     <row r="4">
@@ -580,644 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008655</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5108</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4652</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006081</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4124</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012200</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2865</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006080</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1869</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1485</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010824</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘创新成长混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1362</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001574</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1111</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002051</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1074</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004314</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0728</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0523</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010825</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>天弘创新成长混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.70</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004315</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0390</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>012201</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.07</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>620007</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>74.64</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001375</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>74.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.57</v>
       </c>
     </row>
   </sheetData>
@@ -1226,6 +532,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7306</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4773</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,13 +1973,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,36 +2030,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>001411</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>诺安创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.96</t>
+          <t>61.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0562</t>
+          <t>5.0224</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2022,36 +2068,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.20</t>
+          <t>16.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8359</t>
+          <t>0.8355</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2060,36 +2106,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7306</t>
+          <t>0.5108</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2098,32 +2144,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5930</t>
+          <t>0.4652</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2136,32 +2182,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>006081</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>海富通电子信息传媒产业股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4773</t>
+          <t>0.4124</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2174,36 +2220,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008919</t>
+          <t>012200</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>永赢科技驱动混合A</t>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4141</t>
+          <t>0.2865</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2212,36 +2258,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008655</t>
+          <t>006080</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商科技创新混合A</t>
+          <t>海富通电子信息传媒产业股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2605</t>
+          <t>0.1869</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2250,36 +2296,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1205</t>
+          <t>0.1485</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2288,36 +2334,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013339</t>
+          <t>010824</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信芯片产业股票A</t>
+          <t>天弘创新成长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>87.70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0945</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2326,36 +2372,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008656</t>
+          <t>001574</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商科技创新混合C</t>
+          <t>中海混改红利主题精选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0794</t>
+          <t>0.1111</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2364,36 +2410,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004314</t>
+          <t>002051</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+          <t>诺安创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0755</t>
+          <t>0.1074</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2402,36 +2448,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004315</t>
+          <t>004314</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2440,36 +2486,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>013340</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信芯片产业股票C</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0382</t>
+          <t>0.0728</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2478,36 +2524,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001682</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新华鑫回报混合</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24.86</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.0523</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2516,36 +2562,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>010825</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>天弘创新成长混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>87.70</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.0451</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2554,36 +2600,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008920</t>
+          <t>004315</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>永赢科技驱动混合C</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0241</t>
+          <t>0.0390</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2592,36 +2638,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001574</t>
+          <t>012201</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2630,120 +2676,74 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>012891</t>
+          <t>620007</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合C</t>
+          <t>金元顺安优质精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>74.64</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0204</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D2" t="n">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.57</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688082-盛美上海.xlsx
+++ b/数据整理/stocks/A股/科创板/688082-盛美上海.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>4.92</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>2.91</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>19</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>8.57</v>
       </c>
     </row>
@@ -532,6 +549,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9864</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3973</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>57.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1271,7 +2332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1973,7 +3034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688082-盛美上海.xlsx
+++ b/数据整理/stocks/A股/科创板/688082-盛美上海.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>5.37</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>4.92</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2.91</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.57</v>
       </c>
     </row>
@@ -549,6 +566,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6597</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1592,7 +2159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2332,7 +2899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3034,7 +3601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
